--- a/datasets/linear.xlsx
+++ b/datasets/linear.xlsx
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.4849397654676134</v>
+        <v>2.580876650737995</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1.539102911281773</v>
+        <v>2.048123395432709</v>
       </c>
       <c r="B3">
         <v>0.101010101010101</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1.321722231750347</v>
+        <v>1.517940705042908</v>
       </c>
       <c r="B4">
         <v>0.202020202020202</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1.530083902965232</v>
+        <v>0.9874568714030724</v>
       </c>
       <c r="B5">
         <v>0.303030303030303</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1.798515291360798</v>
+        <v>0.4561162797235548</v>
       </c>
       <c r="B6">
         <v>0.404040404040404</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2.216079812999475</v>
+        <v>-0.0757945006863741</v>
       </c>
       <c r="B7">
         <v>0.5050505050505051</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2.530602062160956</v>
+        <v>-0.6070183349557225</v>
       </c>
       <c r="B8">
         <v>0.6060606060606061</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2.428913008420006</v>
+        <v>-1.140054509809362</v>
       </c>
       <c r="B9">
         <v>0.7070707070707071</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2.77589505506261</v>
+        <v>-1.671479398856432</v>
       </c>
       <c r="B10">
         <v>0.8080808080808081</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2.50307796506329</v>
+        <v>-2.202170675824935</v>
       </c>
       <c r="B11">
         <v>0.9090909090909091</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2.845610282240101</v>
+        <v>-2.733740968320959</v>
       </c>
       <c r="B12">
         <v>1.01010101010101</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>3.837391095791848</v>
+        <v>-3.264018751372689</v>
       </c>
       <c r="B13">
         <v>1.111111111111111</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>3.568758572176542</v>
+        <v>-3.795194561445739</v>
       </c>
       <c r="B14">
         <v>1.212121212121212</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>3.595163372549311</v>
+        <v>-4.327588796701135</v>
       </c>
       <c r="B15">
         <v>1.313131313131313</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4.098439387918747</v>
+        <v>-4.858613046128093</v>
       </c>
       <c r="B16">
         <v>1.414141414141414</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>3.9071419712255</v>
+        <v>-5.388137053270595</v>
       </c>
       <c r="B17">
         <v>1.515151515151515</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>4.438090271027333</v>
+        <v>-5.922430886453511</v>
       </c>
       <c r="B18">
         <v>1.616161616161616</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>4.132442538507737</v>
+        <v>-6.451404202459663</v>
       </c>
       <c r="B19">
         <v>1.717171717171717</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>4.945176725101911</v>
+        <v>-6.984061352776331</v>
       </c>
       <c r="B20">
         <v>1.818181818181818</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5.257015677718472</v>
+        <v>-7.5144037715765</v>
       </c>
       <c r="B21">
         <v>1.919191919191919</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5.051122613283158</v>
+        <v>-8.046693504813501</v>
       </c>
       <c r="B22">
         <v>2.02020202020202</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5.090575066691327</v>
+        <v>-8.577749887454461</v>
       </c>
       <c r="B23">
         <v>2.121212121212121</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5.897002443282395</v>
+        <v>-9.10968336019066</v>
       </c>
       <c r="B24">
         <v>2.222222222222222</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5.700053828008647</v>
+        <v>-9.639835392611747</v>
       </c>
       <c r="B25">
         <v>2.323232323232323</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5.449339328067241</v>
+        <v>-10.17130826279369</v>
       </c>
       <c r="B26">
         <v>2.424242424242424</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6.155200907941966</v>
+        <v>-10.70238431322362</v>
       </c>
       <c r="B27">
         <v>2.525252525252525</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6.099211626400272</v>
+        <v>-11.23487025978524</v>
       </c>
       <c r="B28">
         <v>2.626262626262626</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6.959219462468235</v>
+        <v>-11.76457946383168</v>
       </c>
       <c r="B29">
         <v>2.727272727272727</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6.967007560026336</v>
+        <v>-12.29671440178429</v>
       </c>
       <c r="B30">
         <v>2.828282828282828</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6.588912237393469</v>
+        <v>-12.82832376445579</v>
       </c>
       <c r="B31">
         <v>2.929292929292929</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7.291758640306821</v>
+        <v>-13.36065540119018</v>
       </c>
       <c r="B32">
         <v>3.03030303030303</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7.698072453345323</v>
+        <v>-13.88991597639569</v>
       </c>
       <c r="B33">
         <v>3.131313131313131</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7.51558809383102</v>
+        <v>-14.42281510000129</v>
       </c>
       <c r="B34">
         <v>3.232323232323232</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7.455523451403854</v>
+        <v>-14.9526396726442</v>
       </c>
       <c r="B35">
         <v>3.333333333333333</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7.990413314825952</v>
+        <v>-15.48459584037293</v>
       </c>
       <c r="B36">
         <v>3.434343434343434</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>8.362962327619798</v>
+        <v>-16.01563600387641</v>
       </c>
       <c r="B37">
         <v>3.535353535353535</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>8.331002669383832</v>
+        <v>-16.54873033663295</v>
       </c>
       <c r="B38">
         <v>3.636363636363636</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>8.267926451726501</v>
+        <v>-17.08043937221302</v>
       </c>
       <c r="B39">
         <v>3.737373737373737</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>8.434784143674106</v>
+        <v>-17.61115451471074</v>
       </c>
       <c r="B40">
         <v>3.838383838383838</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>8.518592382328054</v>
+        <v>-18.14013580054829</v>
       </c>
       <c r="B41">
         <v>3.939393939393939</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>10.01544049874111</v>
+        <v>-18.67148231573965</v>
       </c>
       <c r="B42">
         <v>4.040404040404041</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>8.977276026468481</v>
+        <v>-19.20433008377492</v>
       </c>
       <c r="B43">
         <v>4.141414141414141</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>9.477857809420792</v>
+        <v>-19.73681560005754</v>
       </c>
       <c r="B44">
         <v>4.242424242424242</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>9.726586981762415</v>
+        <v>-20.26701420494038</v>
       </c>
       <c r="B45">
         <v>4.343434343434343</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>9.519303632990393</v>
+        <v>-20.79822691027624</v>
       </c>
       <c r="B46">
         <v>4.444444444444445</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>9.63261762227611</v>
+        <v>-21.329944668934</v>
       </c>
       <c r="B47">
         <v>4.545454545454545</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>10.42947676669759</v>
+        <v>-21.8620165997525</v>
       </c>
       <c r="B48">
         <v>4.646464646464646</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>10.83850554937789</v>
+        <v>-22.39278484039104</v>
       </c>
       <c r="B49">
         <v>4.747474747474747</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>10.28689530371221</v>
+        <v>-22.92248157267415</v>
       </c>
       <c r="B50">
         <v>4.848484848484849</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>11.43413986481973</v>
+        <v>-23.45325611777823</v>
       </c>
       <c r="B51">
         <v>4.94949494949495</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>11.45673471229476</v>
+        <v>-23.98514210815209</v>
       </c>
       <c r="B52">
         <v>5.05050505050505</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>11.16791378257563</v>
+        <v>-24.51505561772709</v>
       </c>
       <c r="B53">
         <v>5.151515151515151</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>11.3922935622818</v>
+        <v>-25.0475635805467</v>
       </c>
       <c r="B54">
         <v>5.252525252525253</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>11.69278733991056</v>
+        <v>-25.5803855684425</v>
       </c>
       <c r="B55">
         <v>5.353535353535354</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>11.76379897294941</v>
+        <v>-26.11050690796261</v>
       </c>
       <c r="B56">
         <v>5.454545454545454</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>12.24894796412056</v>
+        <v>-26.64314358291286</v>
       </c>
       <c r="B57">
         <v>5.555555555555555</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>12.00969346301682</v>
+        <v>-27.17506970646387</v>
       </c>
       <c r="B58">
         <v>5.656565656565657</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>12.25763550844004</v>
+        <v>-27.7053772529191</v>
       </c>
       <c r="B59">
         <v>5.757575757575758</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>12.47080942693662</v>
+        <v>-28.23507117965667</v>
       </c>
       <c r="B60">
         <v>5.858585858585858</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>13.23074071110925</v>
+        <v>-28.76505180290239</v>
       </c>
       <c r="B61">
         <v>5.959595959595959</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>13.23003349697087</v>
+        <v>-29.29983450096113</v>
       </c>
       <c r="B62">
         <v>6.060606060606061</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>13.63587055221367</v>
+        <v>-29.82879130708832</v>
       </c>
       <c r="B63">
         <v>6.161616161616162</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>13.71758354672126</v>
+        <v>-30.36262683124833</v>
       </c>
       <c r="B64">
         <v>6.262626262626262</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>13.86131669984965</v>
+        <v>-30.89154974003207</v>
       </c>
       <c r="B65">
         <v>6.363636363636363</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>13.98225734797998</v>
+        <v>-31.42442102141086</v>
       </c>
       <c r="B66">
         <v>6.464646464646465</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>13.21731348636518</v>
+        <v>-31.95499814301883</v>
       </c>
       <c r="B67">
         <v>6.565656565656566</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>14.77249915124497</v>
+        <v>-32.48565585961443</v>
       </c>
       <c r="B68">
         <v>6.666666666666667</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>14.22311533701114</v>
+        <v>-33.01774967775521</v>
       </c>
       <c r="B69">
         <v>6.767676767676767</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>14.52602006011226</v>
+        <v>-33.54905310412074</v>
       </c>
       <c r="B70">
         <v>6.868686868686869</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>14.76710522327489</v>
+        <v>-34.07933068056617</v>
       </c>
       <c r="B71">
         <v>6.96969696969697</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>14.59505931530345</v>
+        <v>-34.61350845109136</v>
       </c>
       <c r="B72">
         <v>7.070707070707071</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>15.22556298080167</v>
+        <v>-35.14367503218144</v>
       </c>
       <c r="B73">
         <v>7.171717171717171</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>15.37819189952492</v>
+        <v>-35.67369454082013</v>
       </c>
       <c r="B74">
         <v>7.272727272727272</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>15.39178285269053</v>
+        <v>-36.20588527820313</v>
       </c>
       <c r="B75">
         <v>7.373737373737374</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>16.27636479711223</v>
+        <v>-36.7373031691475</v>
       </c>
       <c r="B76">
         <v>7.474747474747475</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>16.28505030966144</v>
+        <v>-37.26764391649977</v>
       </c>
       <c r="B77">
         <v>7.575757575757575</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>16.50350942578258</v>
+        <v>-37.79873431413557</v>
       </c>
       <c r="B78">
         <v>7.676767676767676</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>16.99166633235627</v>
+        <v>-38.33129367157059</v>
       </c>
       <c r="B79">
         <v>7.777777777777778</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>16.46051629569768</v>
+        <v>-38.86257790521675</v>
       </c>
       <c r="B80">
         <v>7.878787878787879</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>16.92259412573741</v>
+        <v>-39.39311599248776</v>
       </c>
       <c r="B81">
         <v>7.979797979797979</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>17.01219484113635</v>
+        <v>-39.92611799153099</v>
       </c>
       <c r="B82">
         <v>8.080808080808081</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>17.64699942544026</v>
+        <v>-40.45710137209262</v>
       </c>
       <c r="B83">
         <v>8.181818181818182</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>17.40942669631808</v>
+        <v>-40.9885516358412</v>
       </c>
       <c r="B84">
         <v>8.282828282828282</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>17.47772566377734</v>
+        <v>-41.51916748725189</v>
       </c>
       <c r="B85">
         <v>8.383838383838384</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>17.96270225128751</v>
+        <v>-42.05003304489579</v>
       </c>
       <c r="B86">
         <v>8.484848484848484</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>18.1383011880802</v>
+        <v>-42.58210468517502</v>
       </c>
       <c r="B87">
         <v>8.585858585858587</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>18.0531839672308</v>
+        <v>-43.1115354452515</v>
       </c>
       <c r="B88">
         <v>8.686868686868687</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>18.69025911306016</v>
+        <v>-43.64490304820092</v>
       </c>
       <c r="B89">
         <v>8.787878787878787</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>18.99105768697036</v>
+        <v>-44.1758894683458</v>
       </c>
       <c r="B90">
         <v>8.888888888888889</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>19.15838823891512</v>
+        <v>-44.70658942467375</v>
       </c>
       <c r="B91">
         <v>8.98989898989899</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>19.3866088859041</v>
+        <v>-45.23996255875334</v>
       </c>
       <c r="B92">
         <v>9.09090909090909</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>19.1181661353947</v>
+        <v>-45.77104873623237</v>
       </c>
       <c r="B93">
         <v>9.191919191919192</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>20.2047927060339</v>
+        <v>-46.30027568297962</v>
       </c>
       <c r="B94">
         <v>9.292929292929292</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>19.82513231042919</v>
+        <v>-46.83234168652226</v>
       </c>
       <c r="B95">
         <v>9.393939393939394</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>20.05568986448145</v>
+        <v>-47.36256255066841</v>
       </c>
       <c r="B96">
         <v>9.494949494949495</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>19.9597456936415</v>
+        <v>-47.89709123963097</v>
       </c>
       <c r="B97">
         <v>9.595959595959595</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>20.87234267065649</v>
+        <v>-48.42718786740964</v>
       </c>
       <c r="B98">
         <v>9.696969696969697</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>20.31787088157512</v>
+        <v>-48.95705302161678</v>
       </c>
       <c r="B99">
         <v>9.797979797979798</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>20.98884140995941</v>
+        <v>-49.48948123313464</v>
       </c>
       <c r="B100">
         <v>9.8989898989899</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>20.98052948313507</v>
+        <v>-50.02176140379842</v>
       </c>
       <c r="B101">
         <v>10</v>
